--- a/Task/M2M-008/M2M-008-estimate.xlsx
+++ b/Task/M2M-008/M2M-008-estimate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming_folder\m2m\m2m-clothing\Task\M2M-008\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34002B3E-EDF5-4FD2-860B-3CB9E0734879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE223D0-3770-4FEB-9102-A793EFC0B7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6F8C04E-1419-41FF-A903-998A100DB323}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{E6F8C04E-1419-41FF-A903-998A100DB323}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -73,13 +73,40 @@
   </si>
   <si>
     <t>sum</t>
+  </si>
+  <si>
+    <t>F008-01</t>
+  </si>
+  <si>
+    <t>Login Admin</t>
+  </si>
+  <si>
+    <t>Design &amp; Code User model</t>
+  </si>
+  <si>
+    <t>Implement to Front-End</t>
+  </si>
+  <si>
+    <t>Unit Test</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>F008-02</t>
+  </si>
+  <si>
+    <t>F008-03</t>
+  </si>
+  <si>
+    <t>F008-04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +126,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -114,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -123,17 +158,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -141,14 +202,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -168,9 +239,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,7 +279,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -314,7 +385,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -456,7 +527,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -464,119 +535,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9B5F0F-3917-4923-B627-3400FDA55458}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <f>C2/8</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <f t="shared" ref="D3:D5" si="0">C3/8</f>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3.5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f>SUM(C2:C5)</f>
         <v>6</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <f>SUM(D2:D5)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <f>C11/8</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" ref="D12:D14" si="1">C12/8</f>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1">
+        <f>SUM(C11:C14)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D15" s="1">
+        <f>SUM(D11:D14)</f>
+        <v>1.1875</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A15:B15"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
